--- a/pred_ohlcv/54_21/2020-01-20 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 OCN ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>9335741.954899998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11177379.0876</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>11177379.0876</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>12173697.9765</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12123996.9765</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12123996.9765</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12591771.9765</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12591771.9765</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12591771.9765</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12591771.9765</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12602621.9765</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>12489539.9765</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>12343598.8321</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>11996096.5221</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>11992387.1003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11987881.5756</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11989699.5756</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11989699.5756</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11989699.5756</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11984237.0827</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>11986055.0827</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>11980281.3092</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5968003.084799997</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5041028.318899997</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 OCN ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>9335741.954899998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11177379.0876</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>11177379.0876</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>12173697.9765</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12591771.9765</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12591771.9765</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12602621.9765</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>12489539.9765</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>12343598.8321</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>11996096.5221</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>11992387.1003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11984237.0827</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>11980281.3092</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-727292.8005999997</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
